--- a/data/outputs/management_altmetric/48.xlsx
+++ b/data/outputs/management_altmetric/48.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE20"/>
+  <dimension ref="A1:CF20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1029,6 +1034,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1529,6 +1540,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1770,6 +1784,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1991,6 +2008,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2226,6 +2246,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2469,6 +2492,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2717,6 +2743,9 @@
       </c>
       <c r="CE9" t="n">
         <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2961,6 +2990,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3221,6 +3253,9 @@
       </c>
       <c r="CE11" t="n">
         <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="12">
@@ -3461,6 +3496,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3708,6 +3746,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3951,6 +3992,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4211,6 +4255,9 @@
       </c>
       <c r="CE15" t="n">
         <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -4447,6 +4494,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4692,6 +4742,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4931,6 +4984,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5174,6 +5230,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5413,6 +5472,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
